--- a/Monitoring and Controlling/RTM.xlsx
+++ b/Monitoring and Controlling/RTM.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI\QA project Team A\Monitoring and Controlling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="18855" windowHeight="8130"/>
+    <workbookView xWindow="636" yWindow="540" windowWidth="18852" windowHeight="8136"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -623,35 +628,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,6 +667,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -867,22 +875,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="D82" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
+    <col min="9" max="9" width="33.44140625" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -893,16 +901,16 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10"/>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="10"/>
@@ -917,783 +925,783 @@
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="10"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="14" t="s">
+      <c r="H24" s="13"/>
+      <c r="I24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="11" t="s">
+      <c r="J24" s="13"/>
+      <c r="K24" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="14" t="s">
+      <c r="G30" s="13"/>
+      <c r="H30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="14" t="s">
+      <c r="I30" s="13"/>
+      <c r="J30" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="12"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="12"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="12"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A34" s="12"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="12"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A35" s="12"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="12"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A37" s="12"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="12"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A39" s="12"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="12"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A40" s="12"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="14" t="s">
+      <c r="G41" s="13"/>
+      <c r="H41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="14" t="s">
+      <c r="I41" s="13"/>
+      <c r="J41" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K41" s="12"/>
+      <c r="K41" s="13"/>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A42" s="12"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="12"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A43" s="12"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="12"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="12"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
     </row>
     <row r="45" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A45" s="12"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="12"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A46" s="12"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="12"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
     </row>
     <row r="47" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="12"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
     </row>
     <row r="48" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="16" t="s">
         <v>88</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="16" t="s">
         <v>90</v>
       </c>
       <c r="G48" s="10"/>
-      <c r="H48" s="20" t="s">
+      <c r="H48" s="18" t="s">
         <v>91</v>
       </c>
       <c r="I48" s="10"/>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="16" t="s">
         <v>92</v>
       </c>
       <c r="K48" s="10"/>
@@ -1909,494 +1917,494 @@
       <c r="K62" s="10"/>
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="14" t="s">
+      <c r="G63" s="13"/>
+      <c r="H63" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I63" s="12"/>
-      <c r="J63" s="14" t="s">
+      <c r="I63" s="13"/>
+      <c r="J63" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K63" s="12"/>
+      <c r="K63" s="13"/>
     </row>
     <row r="64" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A64" s="12"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="12"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A65" s="12"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="12"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A66" s="12"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="12"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="14" t="s">
+      <c r="E66" s="13"/>
+      <c r="F66" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="14" t="s">
+      <c r="G66" s="13"/>
+      <c r="H66" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I66" s="12"/>
-      <c r="J66" s="14" t="s">
+      <c r="I66" s="13"/>
+      <c r="J66" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K66" s="12"/>
+      <c r="K66" s="13"/>
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A67" s="12"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="12"/>
+      <c r="C67" s="13"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A68" s="12"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="12"/>
+      <c r="C68" s="13"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A69" s="12"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="12"/>
+      <c r="C69" s="13"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A70" s="12"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="12"/>
+      <c r="C70" s="13"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
     </row>
     <row r="71" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A71" s="12"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="12"/>
+      <c r="C71" s="13"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
     </row>
     <row r="72" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A72" s="12"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="12"/>
+      <c r="C72" s="13"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A73" s="12"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="12"/>
+      <c r="C73" s="13"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
     </row>
     <row r="74" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A74" s="12"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="12"/>
+      <c r="C74" s="13"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
     </row>
     <row r="75" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A75" s="12"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="12"/>
+      <c r="C75" s="13"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
     </row>
     <row r="76" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A76" s="12"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="12"/>
+      <c r="C76" s="13"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
     </row>
     <row r="77" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A77" s="12"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="12"/>
+      <c r="C77" s="13"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
     </row>
     <row r="78" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A78" s="12"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C78" s="12"/>
+      <c r="C78" s="13"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
     </row>
     <row r="79" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A79" s="12"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="12"/>
+      <c r="C79" s="13"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A80" s="12"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C80" s="12"/>
+      <c r="C80" s="13"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
     </row>
     <row r="81" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="14" t="s">
         <v>133</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D81" s="6"/>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="14" t="s">
+      <c r="G81" s="13"/>
+      <c r="H81" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="I81" s="12"/>
-      <c r="J81" s="11" t="s">
+      <c r="I81" s="13"/>
+      <c r="J81" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="K81" s="12"/>
+      <c r="K81" s="13"/>
     </row>
     <row r="82" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
-      <c r="A82" s="12"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="12"/>
+      <c r="C82" s="13"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
     </row>
     <row r="83" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
-      <c r="A83" s="12"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="12"/>
+      <c r="C83" s="13"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
     </row>
     <row r="84" spans="1:11" ht="14.25" customHeight="1" outlineLevel="2">
-      <c r="A84" s="12"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C84" s="12"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
     </row>
     <row r="85" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="14" t="s">
         <v>142</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="14" t="s">
         <v>144</v>
       </c>
       <c r="D85" s="6"/>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F85" s="14" t="s">
+      <c r="F85" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G85" s="12"/>
+      <c r="G85" s="13"/>
       <c r="H85" s="19" t="s">
         <v>147</v>
       </c>
       <c r="I85" s="10"/>
-      <c r="J85" s="9" t="s">
+      <c r="J85" s="20" t="s">
         <v>148</v>
       </c>
       <c r="K85" s="10"/>
     </row>
     <row r="86" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A86" s="12"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="12"/>
+      <c r="C86" s="13"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
     </row>
     <row r="87" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A87" s="12"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="12"/>
+      <c r="C87" s="13"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
     </row>
     <row r="88" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A88" s="12"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="12"/>
+      <c r="C88" s="13"/>
       <c r="D88" s="8"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
     </row>
     <row r="89" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A89" s="12"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="12"/>
+      <c r="C89" s="13"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
     <row r="90" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A90" s="12"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="12"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="8"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
     </row>
     <row r="91" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A91" s="12"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C91" s="12"/>
+      <c r="C91" s="13"/>
       <c r="D91" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
     </row>
     <row r="92" spans="1:11" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A92" s="12"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="12"/>
+      <c r="C92" s="13"/>
       <c r="D92" s="8"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
@@ -4115,17 +4123,42 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="I18:I23"/>
-    <mergeCell ref="J3:K17"/>
-    <mergeCell ref="J18:J29"/>
-    <mergeCell ref="C18:C29"/>
-    <mergeCell ref="C48:C62"/>
-    <mergeCell ref="C63:C80"/>
-    <mergeCell ref="H18:H29"/>
-    <mergeCell ref="E63:E80"/>
+    <mergeCell ref="H85:I92"/>
+    <mergeCell ref="J81:K84"/>
+    <mergeCell ref="J85:K92"/>
+    <mergeCell ref="H3:I17"/>
+    <mergeCell ref="J48:K62"/>
+    <mergeCell ref="H63:I65"/>
+    <mergeCell ref="H66:I80"/>
+    <mergeCell ref="H41:I47"/>
+    <mergeCell ref="H30:I40"/>
+    <mergeCell ref="I24:I29"/>
+    <mergeCell ref="J63:K65"/>
+    <mergeCell ref="J66:K80"/>
+    <mergeCell ref="J41:K47"/>
+    <mergeCell ref="J30:K40"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="F3:G17"/>
+    <mergeCell ref="K24:K29"/>
+    <mergeCell ref="K18:K23"/>
+    <mergeCell ref="H81:I84"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="C30:C40"/>
+    <mergeCell ref="E30:E40"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="A48:A62"/>
+    <mergeCell ref="A63:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="E48:E62"/>
+    <mergeCell ref="H48:I62"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="E3:E17"/>
+    <mergeCell ref="C3:C17"/>
     <mergeCell ref="A85:A92"/>
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="C85:C92"/>
@@ -4142,42 +4175,17 @@
     <mergeCell ref="F85:G92"/>
     <mergeCell ref="E18:E29"/>
     <mergeCell ref="F18:F29"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="E3:E17"/>
-    <mergeCell ref="C3:C17"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="F3:G17"/>
-    <mergeCell ref="K24:K29"/>
-    <mergeCell ref="K18:K23"/>
-    <mergeCell ref="H81:I84"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="C30:C40"/>
-    <mergeCell ref="E30:E40"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="A48:A62"/>
-    <mergeCell ref="A63:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="E48:E62"/>
-    <mergeCell ref="H48:I62"/>
-    <mergeCell ref="H85:I92"/>
-    <mergeCell ref="J81:K84"/>
-    <mergeCell ref="J85:K92"/>
-    <mergeCell ref="H3:I17"/>
-    <mergeCell ref="J48:K62"/>
-    <mergeCell ref="H63:I65"/>
-    <mergeCell ref="H66:I80"/>
-    <mergeCell ref="H41:I47"/>
-    <mergeCell ref="H30:I40"/>
-    <mergeCell ref="I24:I29"/>
-    <mergeCell ref="J63:K65"/>
-    <mergeCell ref="J66:K80"/>
-    <mergeCell ref="J41:K47"/>
-    <mergeCell ref="J30:K40"/>
+    <mergeCell ref="C18:C29"/>
+    <mergeCell ref="C48:C62"/>
+    <mergeCell ref="C63:C80"/>
+    <mergeCell ref="H18:H29"/>
+    <mergeCell ref="E63:E80"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="I18:I23"/>
+    <mergeCell ref="J3:K17"/>
+    <mergeCell ref="J18:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
